--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -33,9 +33,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -48,6 +48,135 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -60,135 +189,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -199,114 +199,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -319,67 +373,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,11 +393,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,41 +464,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,10 +498,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,133 +510,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,7 +998,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>43687</v>
+        <v>43686</v>
       </c>
       <c r="C1">
         <v>18321018650</v>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -47,6 +47,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -54,44 +61,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,48 +122,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,6 +136,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -159,34 +158,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -199,19 +199,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,48 +373,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -272,114 +380,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,47 +393,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,24 +428,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -482,11 +437,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,145 +498,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -32,10 +32,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,6 +60,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -83,13 +160,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -97,14 +167,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -112,79 +174,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,187 +199,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,11 +393,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,17 +465,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -454,39 +482,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,10 +498,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,133 +510,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -54,6 +54,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -61,13 +76,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -75,10 +83,41 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,6 +129,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -98,93 +151,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,67 +199,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,115 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,6 +390,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -411,17 +429,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,15 +476,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -464,32 +490,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -498,145 +498,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>43686</v>
+        <v>43687</v>
       </c>
       <c r="C1">
         <v>18321018650</v>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -46,6 +46,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -54,7 +69,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -68,17 +144,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,101 +168,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,187 +199,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,24 +390,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -428,35 +410,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +448,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -498,10 +498,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,133 +510,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -32,10 +32,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -46,6 +46,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -54,8 +97,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -63,74 +115,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,11 +128,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,31 +151,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,187 +199,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,6 +390,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -404,32 +413,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,8 +434,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -463,6 +448,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,15 +490,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -498,10 +498,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,19 +510,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,112 +531,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,7 +998,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>43687</v>
+        <v>43697</v>
       </c>
       <c r="C1">
         <v>18321018650</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>43689</v>
+        <v>43698</v>
       </c>
       <c r="C2">
         <v>13761302949</v>
@@ -1034,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>43691</v>
+        <v>43699</v>
       </c>
       <c r="C3">
         <v>15601879579</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>43698</v>
+        <v>43706</v>
       </c>
       <c r="C4">
         <v>18321018650</v>
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>43699</v>
+        <v>43707</v>
       </c>
       <c r="C5">
         <v>13761302949</v>
@@ -1067,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>43700</v>
+        <v>43711</v>
       </c>
       <c r="C6">
         <v>15601879579</v>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -32,10 +32,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,7 +47,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -55,6 +55,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -69,21 +77,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,22 +176,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,68 +189,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -199,13 +199,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,13 +331,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,151 +355,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,26 +393,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,11 +425,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,25 +451,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,10 +498,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,133 +510,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,7 +998,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>43706</v>
+        <v>43704</v>
       </c>
       <c r="C4">
         <v>18321018650</v>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -47,6 +47,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -54,7 +61,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -62,7 +83,85 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,106 +176,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,31 +199,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,55 +355,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,91 +373,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,45 +390,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,6 +426,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -490,6 +466,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -498,145 +498,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,7 +998,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>43704</v>
+        <v>43706</v>
       </c>
       <c r="C4">
         <v>18321018650</v>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -34,8 +34,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,6 +47,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -54,12 +61,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -67,6 +135,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -74,18 +143,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,96 +167,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -199,25 +199,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,157 +367,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,24 +390,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -426,21 +408,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -448,6 +415,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,16 +468,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,145 +498,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,7 +998,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>43697</v>
+        <v>43717</v>
       </c>
       <c r="C1">
         <v>18321018650</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>43698</v>
+        <v>43715</v>
       </c>
       <c r="C2">
         <v>13761302949</v>
@@ -1034,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>43699</v>
+        <v>43721</v>
       </c>
       <c r="C3">
         <v>15601879579</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>43706</v>
+        <v>43727</v>
       </c>
       <c r="C4">
         <v>18321018650</v>
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>43707</v>
+        <v>43728</v>
       </c>
       <c r="C5">
         <v>13761302949</v>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
     <t>杨威</t>
   </si>
@@ -32,10 +32,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,8 +60,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,15 +116,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,22 +124,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,38 +139,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,6 +153,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -176,15 +170,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,181 +205,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,6 +390,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -404,17 +454,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,45 +482,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -498,10 +498,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,133 +510,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,15 +995,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="10.375"/>
+    <col min="2" max="2" width="11.5"/>
     <col min="3" max="3" width="12.625"/>
   </cols>
   <sheetData>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>43717</v>
+        <v>43736</v>
       </c>
       <c r="C1">
         <v>18321018650</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>43715</v>
+        <v>43738</v>
       </c>
       <c r="C2">
         <v>13761302949</v>
@@ -1034,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>43721</v>
+        <v>43746</v>
       </c>
       <c r="C3">
         <v>15601879579</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>43727</v>
+        <v>43753</v>
       </c>
       <c r="C4">
         <v>18321018650</v>
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>43728</v>
+        <v>43754</v>
       </c>
       <c r="C5">
         <v>13761302949</v>
@@ -1067,9 +1067,20 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>43711</v>
+        <v>43755</v>
       </c>
       <c r="C6">
+        <v>15601879579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43732</v>
+      </c>
+      <c r="C7">
         <v>15601879579</v>
       </c>
     </row>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
   <si>
     <t>杨威</t>
   </si>
@@ -47,13 +47,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -63,6 +56,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,7 +84,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -91,40 +91,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,6 +114,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -168,16 +152,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,31 +199,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,151 +367,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,41 +408,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -454,6 +419,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,6 +456,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -490,6 +479,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -498,145 +498,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11.5"/>
     <col min="3" max="3" width="12.625"/>
@@ -1031,56 +1031,89 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>43746</v>
+        <v>43739</v>
       </c>
       <c r="C3">
-        <v>15601879579</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>43753</v>
+        <v>43745</v>
       </c>
       <c r="C4">
-        <v>18321018650</v>
+        <v>15601879579</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>43754</v>
+        <v>43746</v>
       </c>
       <c r="C5">
-        <v>13761302949</v>
+        <v>15601879579</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>43755</v>
+        <v>43742</v>
       </c>
       <c r="C6">
-        <v>15601879579</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43753</v>
+      </c>
+      <c r="C7">
+        <v>18321018650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43754</v>
+      </c>
+      <c r="C8">
+        <v>13761302949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B9" s="1">
+        <v>43755</v>
+      </c>
+      <c r="C9">
+        <v>15601879579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
         <v>43732</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>15601879579</v>
       </c>
     </row>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>杨威</t>
   </si>
@@ -32,10 +32,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,12 +47,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -61,9 +99,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,6 +145,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -92,7 +154,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,78 +175,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,187 +199,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,6 +390,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -423,10 +432,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -455,41 +490,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -498,10 +498,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,133 +510,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11.5"/>
     <col min="3" max="3" width="12.625"/>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>43736</v>
+        <v>43753</v>
       </c>
       <c r="C1">
         <v>18321018650</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>43738</v>
+        <v>43754</v>
       </c>
       <c r="C2">
         <v>13761302949</v>
@@ -1031,89 +1031,12 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>43739</v>
+        <v>43755</v>
       </c>
       <c r="C3">
-        <v>13761302949</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43745</v>
-      </c>
-      <c r="C4">
-        <v>15601879579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43746</v>
-      </c>
-      <c r="C5">
-        <v>15601879579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43742</v>
-      </c>
-      <c r="C6">
-        <v>18321018650</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>43753</v>
-      </c>
-      <c r="C7">
-        <v>18321018650</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43754</v>
-      </c>
-      <c r="C8">
-        <v>13761302949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43755</v>
-      </c>
-      <c r="C9">
-        <v>15601879579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>43732</v>
-      </c>
-      <c r="C10">
         <v>15601879579</v>
       </c>
     </row>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>杨威</t>
   </si>
@@ -32,9 +32,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -47,7 +47,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -69,6 +115,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -76,39 +145,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -116,38 +177,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,36 +185,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,187 +199,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,11 +393,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -417,17 +447,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,41 +485,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -498,10 +498,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,133 +510,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11.5"/>
     <col min="3" max="3" width="12.625"/>
@@ -1037,6 +1037,39 @@
         <v>43755</v>
       </c>
       <c r="C3">
+        <v>15601879579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43762</v>
+      </c>
+      <c r="C4">
+        <v>18321018650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43763</v>
+      </c>
+      <c r="C5">
+        <v>13761302949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43767</v>
+      </c>
+      <c r="C6">
         <v>15601879579</v>
       </c>
     </row>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="19890" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
     <t>杨威</t>
   </si>
@@ -33,9 +33,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,15 +47,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,6 +82,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -85,7 +145,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,92 +159,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +199,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -211,13 +265,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,37 +343,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,115 +367,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,6 +390,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -412,6 +421,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -450,19 +470,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,15 +490,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -498,10 +498,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,133 +510,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11.5"/>
     <col min="3" max="3" width="12.625"/>
@@ -1070,6 +1070,17 @@
         <v>43767</v>
       </c>
       <c r="C6">
+        <v>15601879579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43771</v>
+      </c>
+      <c r="C7">
         <v>15601879579</v>
       </c>
     </row>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="19890" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
     <t>杨威</t>
   </si>
@@ -32,10 +32,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,15 +47,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,15 +130,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,91 +146,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,43 +199,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,139 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,17 +393,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,17 +426,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,17 +446,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,9 +467,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,10 +498,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,133 +510,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11.5"/>
     <col min="3" max="3" width="12.625"/>
@@ -1070,6 +1070,17 @@
         <v>43767</v>
       </c>
       <c r="C6">
+        <v>15601879579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43771</v>
+      </c>
+      <c r="C7">
         <v>15601879579</v>
       </c>
     </row>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -32,10 +32,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,7 +47,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -62,129 +184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +199,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -211,31 +223,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,139 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,20 +393,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -422,6 +419,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,8 +450,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,26 +484,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,10 +498,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,16 +510,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,19 +528,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,94 +549,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,7 +998,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -21,10 +21,10 @@
     <t>杨威</t>
   </si>
   <si>
-    <t>王培</t>
+    <t>胡佳佳</t>
   </si>
   <si>
-    <t>胡佳佳</t>
+    <t>王培</t>
   </si>
 </sst>
 </file>
@@ -32,10 +32,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,6 +47,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -54,6 +76,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -68,15 +120,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,92 +169,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,187 +199,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,17 +393,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -423,15 +428,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -447,22 +443,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +481,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -498,10 +498,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,133 +510,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,7 +998,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>43753</v>
+        <v>43774</v>
       </c>
       <c r="C1">
         <v>18321018650</v>
@@ -1023,10 +1023,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>43754</v>
+        <v>43775</v>
       </c>
       <c r="C2">
-        <v>13761302949</v>
+        <v>15601879579</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1034,32 +1034,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>43755</v>
+        <v>43777</v>
       </c>
       <c r="C3">
-        <v>15601879579</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>43762</v>
+        <v>43778</v>
       </c>
       <c r="C4">
-        <v>18321018650</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>43763</v>
+        <v>43784</v>
       </c>
       <c r="C5">
-        <v>13761302949</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1067,18 +1067,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>43767</v>
+        <v>43787</v>
       </c>
       <c r="C6">
-        <v>15601879579</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>43771</v>
+        <v>43789</v>
       </c>
       <c r="C7">
         <v>15601879579</v>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7590"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,12 +47,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -60,23 +129,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,6 +153,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -97,77 +168,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -175,16 +183,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,67 +199,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,115 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,51 +414,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -482,6 +437,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -498,145 +498,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,7 +998,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1067,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>43787</v>
+        <v>43789</v>
       </c>
       <c r="C6">
         <v>13761302949</v>
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>43789</v>
+        <v>43787</v>
       </c>
       <c r="C7">
         <v>15601879579</v>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -21,10 +21,10 @@
     <t>杨威</t>
   </si>
   <si>
-    <t>胡佳佳</t>
+    <t>王培</t>
   </si>
   <si>
-    <t>王培</t>
+    <t>胡佳佳</t>
   </si>
 </sst>
 </file>
@@ -32,10 +32,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,6 +53,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -62,7 +70,68 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,25 +146,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,84 +183,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,181 +205,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,50 +390,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,16 +408,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -484,6 +449,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -498,10 +498,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,133 +510,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,7 +998,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>43774</v>
+        <v>43796</v>
       </c>
       <c r="C1">
         <v>18321018650</v>
@@ -1020,21 +1020,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>43775</v>
+        <v>43799</v>
       </c>
       <c r="C2">
-        <v>15601879579</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>43777</v>
+        <v>43797</v>
       </c>
       <c r="C3">
         <v>13761302949</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>43778</v>
+        <v>43809</v>
       </c>
       <c r="C4">
         <v>13761302949</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>43784</v>
+        <v>43808</v>
       </c>
       <c r="C5">
         <v>18321018650</v>
@@ -1067,18 +1067,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>43789</v>
+        <v>43811</v>
       </c>
       <c r="C6">
-        <v>13761302949</v>
+        <v>15601879579</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>43787</v>
+        <v>43801</v>
       </c>
       <c r="C7">
         <v>15601879579</v>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
   <si>
     <t>杨威</t>
   </si>
@@ -32,10 +32,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,14 +53,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -68,70 +61,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,6 +77,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -160,18 +120,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,8 +152,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,187 +199,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,17 +393,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -412,47 +408,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -476,8 +431,53 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,8 +485,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,145 +498,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11.5"/>
     <col min="3" max="3" width="12.625"/>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>43796</v>
+        <v>43818</v>
       </c>
       <c r="C1">
         <v>18321018650</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="C2">
         <v>18321018650</v>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>43797</v>
+        <v>43819</v>
       </c>
       <c r="C3">
         <v>13761302949</v>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>43809</v>
+        <v>43831</v>
       </c>
       <c r="C4">
         <v>13761302949</v>
@@ -1053,13 +1053,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>43808</v>
+        <v>43834</v>
       </c>
       <c r="C5">
-        <v>18321018650</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1067,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>43811</v>
+        <v>43823</v>
       </c>
       <c r="C6">
         <v>15601879579</v>
@@ -1078,9 +1078,20 @@
         <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>43801</v>
+        <v>43827</v>
       </c>
       <c r="C7">
+        <v>15601879579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43833</v>
+      </c>
+      <c r="C8">
         <v>15601879579</v>
       </c>
     </row>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
     <t>杨威</t>
   </si>
@@ -32,10 +32,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,6 +47,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -55,14 +77,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,22 +145,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,14 +162,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,7 +176,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -128,63 +183,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,25 +199,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,157 +373,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,22 +393,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,38 +441,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,7 +466,27 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,10 +498,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,133 +510,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11.5"/>
     <col min="3" max="3" width="12.625"/>
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>43834</v>
+        <v>43832</v>
       </c>
       <c r="C5">
         <v>13761302949</v>
@@ -1081,17 +1081,6 @@
         <v>43827</v>
       </c>
       <c r="C7">
-        <v>15601879579</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43833</v>
-      </c>
-      <c r="C8">
         <v>15601879579</v>
       </c>
     </row>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>杨威</t>
   </si>
@@ -47,29 +47,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,70 +128,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,14 +184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,25 +199,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,157 +343,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,75 +390,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,6 +421,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -498,10 +498,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,133 +510,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11.5"/>
     <col min="3" max="3" width="12.625"/>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>43818</v>
+        <v>43841</v>
       </c>
       <c r="C1">
         <v>18321018650</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>43830</v>
+        <v>43844</v>
       </c>
       <c r="C2">
         <v>18321018650</v>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>43819</v>
+        <v>43853</v>
       </c>
       <c r="C3">
-        <v>13761302949</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>43831</v>
+        <v>43845</v>
       </c>
       <c r="C4">
         <v>13761302949</v>
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>43832</v>
+        <v>43858</v>
       </c>
       <c r="C5">
         <v>13761302949</v>
@@ -1064,13 +1064,13 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>43823</v>
+        <v>43861</v>
       </c>
       <c r="C6">
-        <v>15601879579</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1078,9 +1078,31 @@
         <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>43827</v>
+        <v>43847</v>
       </c>
       <c r="C7">
+        <v>15601879579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43857</v>
+      </c>
+      <c r="C8">
+        <v>15601879579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43862</v>
+      </c>
+      <c r="C9">
         <v>15601879579</v>
       </c>
     </row>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -16,15 +16,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+  <si>
+    <t>王召</t>
+  </si>
+  <si>
+    <t>胡佳佳</t>
+  </si>
+  <si>
+    <t>杨修</t>
+  </si>
+  <si>
+    <t>范祥</t>
+  </si>
+  <si>
+    <t>朱梦迪</t>
+  </si>
+  <si>
+    <t>谢小军</t>
+  </si>
   <si>
     <t>杨威</t>
   </si>
   <si>
-    <t>王培</t>
+    <t>钟洪涛</t>
   </si>
   <si>
-    <t>胡佳佳</t>
+    <t>王培</t>
   </si>
 </sst>
 </file>
@@ -32,10 +50,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,14 +65,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,14 +95,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,22 +110,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,7 +141,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,14 +166,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,6 +185,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -199,55 +217,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,127 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,15 +408,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -416,32 +425,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,6 +461,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -490,6 +484,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -498,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,10 +1013,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1012,97 +1030,185 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>43841</v>
+        <v>43481</v>
       </c>
       <c r="C1">
-        <v>18321018650</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>43844</v>
+        <v>43482</v>
       </c>
       <c r="C2">
-        <v>18321018650</v>
+        <v>15601879579</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>43853</v>
+        <v>43483</v>
       </c>
       <c r="C3">
-        <v>18321018650</v>
+        <v>18916924202</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>43845</v>
+        <v>43484</v>
       </c>
       <c r="C4">
-        <v>13761302949</v>
+        <v>18016333991</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>43858</v>
+        <v>43485</v>
       </c>
       <c r="C5">
-        <v>13761302949</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>43861</v>
+        <v>43486</v>
       </c>
       <c r="C6">
-        <v>13761302949</v>
+        <v>18916924202</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>43847</v>
+        <v>43487</v>
       </c>
       <c r="C7">
-        <v>15601879579</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>43857</v>
+        <v>43488</v>
       </c>
       <c r="C8">
-        <v>15601879579</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43489</v>
+      </c>
+      <c r="C9">
+        <v>13813865302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43490</v>
+      </c>
+      <c r="C10">
+        <v>13661400322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43491</v>
+      </c>
+      <c r="C11">
+        <v>18137273250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43492</v>
+      </c>
+      <c r="C12">
+        <v>15601879579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43493</v>
+      </c>
+      <c r="C13">
+        <v>13761302949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B14" s="1">
+        <v>43494</v>
+      </c>
+      <c r="C14">
+        <v>18916924202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43495</v>
+      </c>
+      <c r="C15">
+        <v>17621301036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43861</v>
+      </c>
+      <c r="C16">
+        <v>13761302949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
         <v>43862</v>
       </c>
-      <c r="C9">
+      <c r="C17">
         <v>15601879579</v>
       </c>
     </row>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -52,8 +52,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,6 +65,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -73,7 +80,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,15 +101,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,20 +165,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -171,38 +201,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,187 +217,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,13 +411,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,6 +451,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -470,36 +500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -516,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>43481</v>
+        <v>43846</v>
       </c>
       <c r="C1">
         <v>13661400322</v>
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>43482</v>
+        <v>43847</v>
       </c>
       <c r="C2">
         <v>15601879579</v>
@@ -1052,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>43483</v>
+        <v>43848</v>
       </c>
       <c r="C3">
         <v>18916924202</v>
@@ -1063,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>43484</v>
+        <v>43849</v>
       </c>
       <c r="C4">
         <v>18016333991</v>
@@ -1074,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>43485</v>
+        <v>43850</v>
       </c>
       <c r="C5">
         <v>18137273250</v>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>43486</v>
+        <v>43851</v>
       </c>
       <c r="C6">
         <v>18916924202</v>
@@ -1096,7 +1096,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>43487</v>
+        <v>43852</v>
       </c>
       <c r="C7">
         <v>17621301036</v>
@@ -1107,7 +1107,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>43488</v>
+        <v>43853</v>
       </c>
       <c r="C8">
         <v>18321018650</v>
@@ -1118,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>43489</v>
+        <v>43854</v>
       </c>
       <c r="C9">
         <v>13813865302</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>43490</v>
+        <v>43855</v>
       </c>
       <c r="C10">
         <v>13661400322</v>
@@ -1140,7 +1140,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>43491</v>
+        <v>43856</v>
       </c>
       <c r="C11">
         <v>18137273250</v>
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>43492</v>
+        <v>43857</v>
       </c>
       <c r="C12">
         <v>15601879579</v>
@@ -1162,7 +1162,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1">
-        <v>43493</v>
+        <v>43858</v>
       </c>
       <c r="C13">
         <v>13761302949</v>
@@ -1173,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1">
-        <v>43494</v>
+        <v>43859</v>
       </c>
       <c r="C14">
         <v>18916924202</v>
@@ -1184,7 +1184,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>43495</v>
+        <v>43860</v>
       </c>
       <c r="C15">
         <v>17621301036</v>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>王召</t>
   </si>
@@ -27,19 +27,10 @@
     <t>杨修</t>
   </si>
   <si>
-    <t>范祥</t>
-  </si>
-  <si>
-    <t>朱梦迪</t>
-  </si>
-  <si>
     <t>谢小军</t>
   </si>
   <si>
     <t>杨威</t>
-  </si>
-  <si>
-    <t>钟洪涛</t>
   </si>
   <si>
     <t>王培</t>
@@ -50,9 +41,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -78,6 +69,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -95,7 +100,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,14 +108,76 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,85 +191,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,61 +208,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,115 +382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,36 +426,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -472,21 +433,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +454,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -516,10 +507,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,133 +519,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,13 +1004,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A9" sqref="$A9:$XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11.5"/>
     <col min="3" max="3" width="12.625"/>
@@ -1030,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>43846</v>
+        <v>43864</v>
       </c>
       <c r="C1">
         <v>13661400322</v>
@@ -1041,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>43847</v>
+        <v>43863</v>
       </c>
       <c r="C2">
         <v>15601879579</v>
@@ -1052,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>43848</v>
+        <v>43866</v>
       </c>
       <c r="C3">
         <v>18916924202</v>
@@ -1063,10 +1054,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>43849</v>
+        <v>43865</v>
       </c>
       <c r="C4">
-        <v>18016333991</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1074,142 +1065,43 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>43850</v>
+        <v>43868</v>
       </c>
       <c r="C5">
-        <v>18137273250</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>43851</v>
+        <v>43870</v>
       </c>
       <c r="C6">
-        <v>18916924202</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>43852</v>
+        <v>43869</v>
       </c>
       <c r="C7">
-        <v>17621301036</v>
+        <v>15601879579</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>43853</v>
+        <v>43867</v>
       </c>
       <c r="C8">
-        <v>18321018650</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43854</v>
-      </c>
-      <c r="C9">
-        <v>13813865302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>43855</v>
-      </c>
-      <c r="C10">
-        <v>13661400322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>43856</v>
-      </c>
-      <c r="C11">
-        <v>18137273250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
-        <v>43857</v>
-      </c>
-      <c r="C12">
-        <v>15601879579</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1">
-        <v>43858</v>
-      </c>
-      <c r="C13">
         <v>13761302949</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1">
-        <v>43859</v>
-      </c>
-      <c r="C14">
-        <v>18916924202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>43860</v>
-      </c>
-      <c r="C15">
-        <v>17621301036</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1">
-        <v>43861</v>
-      </c>
-      <c r="C16">
-        <v>13761302949</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
-        <v>43862</v>
-      </c>
-      <c r="C17">
-        <v>15601879579</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
-    <t>王召</t>
-  </si>
-  <si>
-    <t>胡佳佳</t>
+    <t xml:space="preserve">朱梦迪      </t>
   </si>
   <si>
     <t>杨修</t>
@@ -41,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -56,36 +53,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,14 +83,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -115,17 +136,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,24 +166,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,23 +190,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +205,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -220,7 +337,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,163 +361,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,17 +399,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -437,24 +434,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -470,17 +449,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +481,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -507,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,7 +1004,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1021,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>43864</v>
+        <v>43871</v>
       </c>
       <c r="C1">
-        <v>13661400322</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1032,10 +1029,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>43863</v>
+        <v>43872</v>
       </c>
       <c r="C2">
-        <v>15601879579</v>
+        <v>18916924202</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1043,10 +1040,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>43866</v>
+        <v>43873</v>
       </c>
       <c r="C3">
-        <v>18916924202</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1054,10 +1051,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>43865</v>
+        <v>43874</v>
       </c>
       <c r="C4">
-        <v>17621301036</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1065,10 +1062,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="C5">
-        <v>18321018650</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1076,33 +1073,17 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>43870</v>
+        <v>43876</v>
       </c>
       <c r="C6">
-        <v>13661400322</v>
+        <v>18137273250</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>43869</v>
-      </c>
-      <c r="C7">
-        <v>15601879579</v>
-      </c>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43867</v>
-      </c>
-      <c r="C8">
-        <v>13761302949</v>
-      </c>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -24,13 +24,13 @@
     <t>杨修</t>
   </si>
   <si>
-    <t>谢小军</t>
+    <t>王召</t>
   </si>
   <si>
-    <t>杨威</t>
+    <t>胡佳佳</t>
   </si>
   <si>
-    <t>王培</t>
+    <t>钟洪涛</t>
   </si>
 </sst>
 </file>
@@ -59,16 +59,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,14 +112,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,9 +165,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,9 +174,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,59 +195,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -205,187 +205,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +396,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -416,15 +431,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -435,16 +441,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,36 +496,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,145 +504,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>43871</v>
+        <v>43881</v>
       </c>
       <c r="C1">
         <v>18137273250</v>
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>43872</v>
+        <v>43882</v>
       </c>
       <c r="C2">
         <v>18916924202</v>
@@ -1040,10 +1040,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>43873</v>
+        <v>43878</v>
       </c>
       <c r="C3">
-        <v>17621301036</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1051,10 +1051,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>43874</v>
+        <v>43879</v>
       </c>
       <c r="C4">
-        <v>18321018650</v>
+        <v>15601879579</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1062,21 +1062,21 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>43875</v>
+        <v>43880</v>
       </c>
       <c r="C5">
-        <v>13761302949</v>
+        <v>13813865302</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>43876</v>
+        <v>43883</v>
       </c>
       <c r="C6">
-        <v>18137273250</v>
+        <v>15601879579</v>
       </c>
     </row>
     <row r="7" spans="2:2">

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -18,10 +18,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
-    <t xml:space="preserve">朱梦迪      </t>
+    <t>谢小军</t>
   </si>
   <si>
-    <t>杨修</t>
+    <t>杨威</t>
+  </si>
+  <si>
+    <t>王培</t>
   </si>
   <si>
     <t>王召</t>
@@ -29,19 +32,16 @@
   <si>
     <t>胡佳佳</t>
   </si>
-  <si>
-    <t>钟洪涛</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,30 +67,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,6 +103,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -111,70 +134,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,10 +159,40 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -211,25 +211,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,151 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,17 +399,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,11 +425,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,7 +466,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,18 +488,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,145 +504,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>43881</v>
+        <v>43885</v>
       </c>
       <c r="C1">
-        <v>18137273250</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1029,10 +1029,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="C2">
-        <v>18916924202</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1040,10 +1040,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>43878</v>
+        <v>43887</v>
       </c>
       <c r="C3">
-        <v>13661400322</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1051,10 +1051,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>43879</v>
+        <v>43888</v>
       </c>
       <c r="C4">
-        <v>15601879579</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1062,21 +1062,21 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>43880</v>
+        <v>43889</v>
       </c>
       <c r="C5">
-        <v>13813865302</v>
+        <v>15601879579</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>43883</v>
+        <v>43890</v>
       </c>
       <c r="C6">
-        <v>15601879579</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="7" spans="2:2">

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="19890" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
+  <si>
+    <t>钟洪涛</t>
+  </si>
+  <si>
+    <t>杨修</t>
+  </si>
+  <si>
+    <t>朱梦迪</t>
+  </si>
   <si>
     <t>谢小军</t>
   </si>
@@ -38,8 +47,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -53,43 +62,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,48 +92,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,14 +130,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -174,29 +182,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +214,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -217,7 +358,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,163 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,8 +423,53 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -427,61 +493,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +508,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,141 +537,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1001,13 +1034,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11.5"/>
     <col min="3" max="3" width="12.625"/>
@@ -1017,73 +1050,331 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>43885</v>
+      <c r="B1" s="3">
+        <v>43892</v>
       </c>
       <c r="C1">
-        <v>17621301036</v>
+        <v>13813865302</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>43886</v>
+      <c r="B2" s="3">
+        <v>43893</v>
       </c>
       <c r="C2">
-        <v>18321018650</v>
+        <v>18916924202</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>43887</v>
+      <c r="B3" s="3">
+        <v>43894</v>
       </c>
       <c r="C3">
-        <v>13761302949</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>43888</v>
+      <c r="B4" s="3">
+        <v>43895</v>
       </c>
       <c r="C4">
-        <v>13661400322</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>43889</v>
+      <c r="B5" s="3">
+        <v>43896</v>
       </c>
       <c r="C5">
-        <v>15601879579</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43890</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43899</v>
       </c>
       <c r="C6">
         <v>13761302949</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="1"/>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43900</v>
+      </c>
+      <c r="C7">
+        <v>13661400322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43901</v>
+      </c>
+      <c r="C8">
+        <v>15601879579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43902</v>
+      </c>
+      <c r="C9">
+        <v>13813865302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43903</v>
+      </c>
+      <c r="C10">
+        <v>18916924202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>43906</v>
+      </c>
+      <c r="C11">
+        <v>18137273250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43907</v>
+      </c>
+      <c r="C12">
+        <v>17621301036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>43908</v>
+      </c>
+      <c r="C13">
+        <v>18321018650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>43909</v>
+      </c>
+      <c r="C14">
+        <v>13761302949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43910</v>
+      </c>
+      <c r="C15">
+        <v>13661400322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43913</v>
+      </c>
+      <c r="C16">
+        <v>15601879579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3">
+        <v>43914</v>
+      </c>
+      <c r="C17">
+        <v>13813865302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>43915</v>
+      </c>
+      <c r="C18">
+        <v>18916924202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>43916</v>
+      </c>
+      <c r="C19">
+        <v>18137273250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43917</v>
+      </c>
+      <c r="C20">
+        <v>17621301036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>43920</v>
+      </c>
+      <c r="C21">
+        <v>18321018650</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C22">
+        <v>13761302949</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3">
+        <v>43922</v>
+      </c>
+      <c r="C23">
+        <v>13661400322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3">
+        <v>43923</v>
+      </c>
+      <c r="C24">
+        <v>15601879579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3">
+        <v>43924</v>
+      </c>
+      <c r="C25">
+        <v>13813865302</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4">
+        <v>43897</v>
+      </c>
+      <c r="C26" s="1">
+        <v>18916924202</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="5">
+        <v>43904</v>
+      </c>
+      <c r="C27" s="2">
+        <v>17621301036</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="5">
+        <v>43911</v>
+      </c>
+      <c r="C28" s="2">
+        <v>18321018650</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5">
+        <v>43918</v>
+      </c>
+      <c r="C29" s="2">
+        <v>13813865302</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="5">
+        <v>43925</v>
+      </c>
+      <c r="C30" s="2">
+        <v>13661400322</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7590"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
-  <si>
-    <t>钟洪涛</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
   <si>
     <t>杨修</t>
   </si>
@@ -41,15 +38,18 @@
   <si>
     <t>胡佳佳</t>
   </si>
+  <si>
+    <t>钟洪涛</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -62,7 +62,106 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,136 +175,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,7 +220,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,55 +382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,72 +394,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -365,48 +401,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,16 +424,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,6 +453,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -470,30 +473,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,6 +496,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -525,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,16 +531,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,135 +549,129 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1034,10 +1022,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1050,330 +1038,341 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
-        <v>43892</v>
+      <c r="B1" s="2">
+        <v>43928</v>
       </c>
       <c r="C1">
-        <v>13813865302</v>
+        <v>18916924202</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>43893</v>
+      <c r="B2" s="2">
+        <v>43929</v>
       </c>
       <c r="C2">
-        <v>18916924202</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>43894</v>
+      <c r="B3" s="2">
+        <v>43930</v>
       </c>
       <c r="C3">
-        <v>18137273250</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>43895</v>
+      <c r="B4" s="2">
+        <v>43931</v>
       </c>
       <c r="C4">
-        <v>17621301036</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>43896</v>
+      <c r="B5" s="2">
+        <v>43934</v>
       </c>
       <c r="C5">
-        <v>18321018650</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>43899</v>
+      <c r="B6" s="2">
+        <v>43935</v>
       </c>
       <c r="C6">
-        <v>13761302949</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>43900</v>
+      <c r="B7" s="2">
+        <v>43936</v>
       </c>
       <c r="C7">
-        <v>13661400322</v>
+        <v>15601879579</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>43901</v>
+      <c r="B8" s="2">
+        <v>43937</v>
       </c>
       <c r="C8">
-        <v>15601879579</v>
+        <v>13813865302</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3">
-        <v>43902</v>
+      <c r="B9" s="2">
+        <v>43938</v>
       </c>
       <c r="C9">
-        <v>13813865302</v>
+        <v>18916924202</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="3">
-        <v>43903</v>
+      <c r="B10" s="2">
+        <v>43941</v>
       </c>
       <c r="C10">
-        <v>18916924202</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
-        <v>43906</v>
+      <c r="B11" s="2">
+        <v>43942</v>
       </c>
       <c r="C11">
-        <v>18137273250</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
-        <v>43907</v>
+      <c r="B12" s="2">
+        <v>43943</v>
       </c>
       <c r="C12">
-        <v>17621301036</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3">
-        <v>43908</v>
+      <c r="B13" s="2">
+        <v>43944</v>
       </c>
       <c r="C13">
-        <v>18321018650</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3">
-        <v>43909</v>
+      <c r="B14" s="2">
+        <v>43945</v>
       </c>
       <c r="C14">
-        <v>13761302949</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="3">
-        <v>43910</v>
+      <c r="B15" s="2">
+        <v>43947</v>
       </c>
       <c r="C15">
-        <v>13661400322</v>
+        <v>15601879579</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="3">
-        <v>43913</v>
+      <c r="B16" s="2">
+        <v>43948</v>
       </c>
       <c r="C16">
-        <v>15601879579</v>
+        <v>13813865302</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3">
-        <v>43914</v>
+      <c r="B17" s="2">
+        <v>43949</v>
       </c>
       <c r="C17">
-        <v>13813865302</v>
+        <v>18916924202</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="3">
-        <v>43915</v>
+      <c r="B18" s="2">
+        <v>43950</v>
       </c>
       <c r="C18">
-        <v>18916924202</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="3">
-        <v>43916</v>
+      <c r="B19" s="2">
+        <v>43951</v>
       </c>
       <c r="C19">
-        <v>18137273250</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="3">
-        <v>43917</v>
+      <c r="B20" s="2">
+        <v>43957</v>
       </c>
       <c r="C20">
-        <v>17621301036</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="3">
-        <v>43920</v>
+      <c r="B21" s="2">
+        <v>43958</v>
       </c>
       <c r="C21">
-        <v>18321018650</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="3">
-        <v>43921</v>
+      <c r="B22" s="2">
+        <v>43959</v>
       </c>
       <c r="C22">
-        <v>13761302949</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="3">
-        <v>43922</v>
+      <c r="B23" s="2">
+        <v>43960</v>
       </c>
       <c r="C23">
-        <v>13661400322</v>
+        <v>15601879579</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="3">
-        <v>43923</v>
+      <c r="B24" s="2">
+        <v>43962</v>
       </c>
       <c r="C24">
-        <v>15601879579</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>0</v>
+        <v>13813865302</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B25" s="3">
-        <v>43924</v>
-      </c>
-      <c r="C25">
-        <v>13813865302</v>
+        <v>43932</v>
+      </c>
+      <c r="C25" s="1">
+        <v>18137273250</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="4">
-        <v>43897</v>
+        <v>6</v>
+      </c>
+      <c r="B26" s="3">
+        <v>43939</v>
       </c>
       <c r="C26" s="1">
+        <v>15601879579</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>43946</v>
+      </c>
+      <c r="C27" s="1">
+        <v>13761302949</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3">
+        <v>43952</v>
+      </c>
+      <c r="C28" s="1">
         <v>18916924202</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:3">
-      <c r="A27" s="2" t="s">
+    <row r="29" s="1" customFormat="1" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3">
+        <v>43953</v>
+      </c>
+      <c r="C29" s="1">
+        <v>17621301036</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:3">
+      <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="5">
-        <v>43904</v>
-      </c>
-      <c r="C27" s="2">
-        <v>17621301036</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="5">
-        <v>43911</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="B30" s="3">
+        <v>43955</v>
+      </c>
+      <c r="C30" s="1">
         <v>18321018650</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="5">
-        <v>43918</v>
-      </c>
-      <c r="C29" s="2">
+    <row r="31" s="1" customFormat="1" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3">
+        <v>43956</v>
+      </c>
+      <c r="C31" s="1">
         <v>13813865302</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="5">
-        <v>43925</v>
-      </c>
-      <c r="C30" s="2">
-        <v>13661400322</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -39,7 +39,7 @@
     <t>胡佳佳</t>
   </si>
   <si>
-    <t>钟洪涛</t>
+    <t>范祥</t>
   </si>
 </sst>
 </file>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,35 +62,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,16 +90,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,33 +137,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,47 +159,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,31 +220,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,96 +394,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -353,54 +401,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,8 +417,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,61 +488,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,145 +519,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,8 +1024,8 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1119,7 +1119,7 @@
         <v>43937</v>
       </c>
       <c r="C8">
-        <v>13813865302</v>
+        <v>18016333991</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>43948</v>
       </c>
       <c r="C16">
-        <v>13813865302</v>
+        <v>18016333991</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1295,7 +1295,7 @@
         <v>43962</v>
       </c>
       <c r="C24">
-        <v>13813865302</v>
+        <v>18016333991</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:3">
@@ -1371,8 +1371,8 @@
       <c r="B31" s="3">
         <v>43956</v>
       </c>
-      <c r="C31" s="1">
-        <v>13813865302</v>
+      <c r="C31">
+        <v>18016333991</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
     <t>杨修</t>
   </si>
@@ -38,19 +38,16 @@
   <si>
     <t>胡佳佳</t>
   </si>
-  <si>
-    <t>范祥</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,8 +72,77 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,23 +163,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,7 +181,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,68 +197,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,13 +217,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,163 +379,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,65 +408,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,6 +435,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -511,6 +473,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -519,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,10 +1019,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1039,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>43928</v>
+        <v>43962</v>
       </c>
       <c r="C1">
         <v>18916924202</v>
@@ -1050,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>43929</v>
+        <v>43963</v>
       </c>
       <c r="C2">
         <v>18137273250</v>
@@ -1061,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>43930</v>
+        <v>43964</v>
       </c>
       <c r="C3">
         <v>17621301036</v>
@@ -1072,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>43931</v>
+        <v>43965</v>
       </c>
       <c r="C4">
         <v>18321018650</v>
@@ -1083,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>43934</v>
+        <v>43966</v>
       </c>
       <c r="C5">
         <v>13761302949</v>
@@ -1094,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>43935</v>
+        <v>43969</v>
       </c>
       <c r="C6">
         <v>13661400322</v>
@@ -1105,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>43936</v>
+        <v>43970</v>
       </c>
       <c r="C7">
         <v>15601879579</v>
@@ -1113,266 +1110,167 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B8" s="2">
-        <v>43937</v>
+        <v>43971</v>
       </c>
       <c r="C8">
-        <v>18016333991</v>
+        <v>18916924202</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>43938</v>
+        <v>43972</v>
       </c>
       <c r="C9">
-        <v>18916924202</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>43941</v>
+        <v>43973</v>
       </c>
       <c r="C10">
-        <v>18137273250</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2">
-        <v>43942</v>
+        <v>43976</v>
       </c>
       <c r="C11">
-        <v>17621301036</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>43943</v>
+        <v>43977</v>
       </c>
       <c r="C12">
-        <v>18321018650</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>43944</v>
+        <v>43978</v>
       </c>
       <c r="C13">
-        <v>13761302949</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
-        <v>43945</v>
+        <v>43979</v>
       </c>
       <c r="C14">
-        <v>13661400322</v>
+        <v>15601879579</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>43947</v>
+        <v>43980</v>
       </c>
       <c r="C15">
-        <v>15601879579</v>
+        <v>18916924202</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2">
-        <v>43948</v>
+        <v>43957</v>
       </c>
       <c r="C16">
-        <v>18016333991</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>43949</v>
+        <v>43958</v>
       </c>
       <c r="C17">
-        <v>18916924202</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>43950</v>
+        <v>43959</v>
       </c>
       <c r="C18">
-        <v>18137273250</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
-        <v>43951</v>
+        <v>43960</v>
       </c>
       <c r="C19">
-        <v>17621301036</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2">
-        <v>43957</v>
-      </c>
-      <c r="C20">
-        <v>18321018650</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+        <v>15601879579</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43967</v>
+      </c>
+      <c r="C20" s="1">
+        <v>15601879579</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:3">
+      <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="2">
-        <v>43958</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="3">
+        <v>43974</v>
+      </c>
+      <c r="C21" s="1">
         <v>13761302949</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2">
-        <v>43959</v>
-      </c>
-      <c r="C22">
-        <v>13661400322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2">
-        <v>43960</v>
-      </c>
-      <c r="C23">
-        <v>15601879579</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2">
-        <v>43962</v>
-      </c>
-      <c r="C24">
-        <v>18016333991</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3">
-        <v>43932</v>
-      </c>
-      <c r="C25" s="1">
-        <v>18137273250</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="3">
-        <v>43939</v>
-      </c>
-      <c r="C26" s="1">
-        <v>15601879579</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3">
-        <v>43946</v>
-      </c>
-      <c r="C27" s="1">
-        <v>13761302949</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:3">
-      <c r="A28" s="1" t="s">
+    <row r="22" s="1" customFormat="1" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="3">
-        <v>43952</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B22" s="3">
+        <v>43981</v>
+      </c>
+      <c r="C22" s="1">
         <v>18916924202</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="3">
-        <v>43953</v>
-      </c>
-      <c r="C29" s="1">
-        <v>17621301036</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="3">
-        <v>43955</v>
-      </c>
-      <c r="C30" s="1">
-        <v>18321018650</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="3">
-        <v>43956</v>
-      </c>
-      <c r="C31">
-        <v>18016333991</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
-  <si>
-    <t>杨修</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
     <t>朱梦迪</t>
   </si>
@@ -38,16 +35,19 @@
   <si>
     <t>胡佳佳</t>
   </si>
+  <si>
+    <t>杨修</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,55 +65,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,69 +129,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,61 +217,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,121 +373,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,45 +408,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,13 +450,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +497,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -516,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,10 +1019,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>43962</v>
+        <v>43983</v>
       </c>
       <c r="C1">
-        <v>18916924202</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1047,10 +1047,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>43963</v>
+        <v>43984</v>
       </c>
       <c r="C2">
-        <v>18137273250</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1058,10 +1058,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>43964</v>
+        <v>43985</v>
       </c>
       <c r="C3">
-        <v>17621301036</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1069,10 +1069,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>43965</v>
+        <v>43986</v>
       </c>
       <c r="C4">
-        <v>18321018650</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1080,10 +1080,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>43966</v>
+        <v>43987</v>
       </c>
       <c r="C5">
-        <v>13761302949</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1091,10 +1091,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>43969</v>
+        <v>43990</v>
       </c>
       <c r="C6">
-        <v>13661400322</v>
+        <v>15601879579</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1102,10 +1102,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>43970</v>
+        <v>43991</v>
       </c>
       <c r="C7">
-        <v>15601879579</v>
+        <v>18916924202</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2">
-        <v>43971</v>
+        <v>43992</v>
       </c>
       <c r="C8">
-        <v>18916924202</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1124,10 +1124,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>43972</v>
+        <v>43993</v>
       </c>
       <c r="C9">
-        <v>18137273250</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1135,10 +1135,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>43973</v>
+        <v>43994</v>
       </c>
       <c r="C10">
-        <v>17621301036</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1146,10 +1146,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2">
-        <v>43976</v>
+        <v>43997</v>
       </c>
       <c r="C11">
-        <v>18321018650</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1157,10 +1157,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>43977</v>
+        <v>43998</v>
       </c>
       <c r="C12">
-        <v>13761302949</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1168,10 +1168,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>43978</v>
+        <v>43999</v>
       </c>
       <c r="C13">
-        <v>13661400322</v>
+        <v>15601879579</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1179,97 +1179,130 @@
         <v>6</v>
       </c>
       <c r="B14" s="2">
-        <v>43979</v>
+        <v>44000</v>
       </c>
       <c r="C14">
-        <v>15601879579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>18916924202</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>43980</v>
+        <v>44001</v>
       </c>
       <c r="C15">
-        <v>18916924202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>18137273250</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:3">
       <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44004</v>
+      </c>
+      <c r="C16">
+        <v>17621301036</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44005</v>
+      </c>
+      <c r="C17">
+        <v>18321018650</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:3">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="2">
-        <v>43957</v>
-      </c>
-      <c r="C16">
-        <v>18321018650</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B18" s="2">
+        <v>44006</v>
+      </c>
+      <c r="C18">
+        <v>13761302949</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="2">
-        <v>43958</v>
-      </c>
-      <c r="C17">
-        <v>13761302949</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="B19" s="2">
+        <v>44007</v>
+      </c>
+      <c r="C19">
+        <v>13661400322</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:3">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2">
-        <v>43959</v>
-      </c>
-      <c r="C18">
-        <v>13661400322</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2">
-        <v>43960</v>
-      </c>
-      <c r="C19">
-        <v>15601879579</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="3">
-        <v>43967</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="2">
+        <v>44008</v>
+      </c>
+      <c r="C20">
         <v>15601879579</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>43974</v>
+        <v>43988</v>
       </c>
       <c r="C21" s="1">
-        <v>13761302949</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
       <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3">
+        <v>43995</v>
+      </c>
+      <c r="C22" s="1">
+        <v>18321018650</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44002</v>
+      </c>
+      <c r="C23" s="1">
+        <v>13661400322</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B24" s="3">
+        <v>44009</v>
+      </c>
+      <c r="C24" s="1">
+        <v>18137273250</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3">
         <v>43981</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C25" s="1">
         <v>18916924202</v>
       </c>
     </row>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,10 +44,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,6 +60,135 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -72,135 +201,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -217,13 +217,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,79 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,85 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,8 +414,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,17 +435,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,7 +463,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,15 +485,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -508,6 +493,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -516,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,31 +528,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,100 +561,100 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1229,25 +1229,25 @@
         <v>13761302949</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2">
-        <v>44007</v>
-      </c>
-      <c r="C19">
-        <v>13661400322</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:3">
-      <c r="A20" t="s">
+    <row r="19" s="1" customFormat="1" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44009</v>
+      </c>
+      <c r="C19" s="1">
+        <v>13761302949</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>44008</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>15601879579</v>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="3">
-        <v>44009</v>
+        <v>44007</v>
       </c>
       <c r="C24" s="1">
         <v>18137273250</v>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -44,9 +44,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -65,15 +65,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,51 +75,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,42 +88,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,6 +112,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -201,6 +171,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -217,187 +217,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,15 +408,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,22 +430,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,6 +454,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -483,28 +494,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,145 +516,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>44004</v>
+        <v>44007</v>
       </c>
       <c r="C16">
         <v>17621301036</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="3">
-        <v>44007</v>
+        <v>44004</v>
       </c>
       <c r="C24" s="1">
         <v>18137273250</v>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -18,6 +18,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
+    <t>王召</t>
+  </si>
+  <si>
+    <t>胡佳佳</t>
+  </si>
+  <si>
+    <t>杨修</t>
+  </si>
+  <si>
     <t>朱梦迪</t>
   </si>
   <si>
@@ -29,25 +38,16 @@
   <si>
     <t>王培</t>
   </si>
-  <si>
-    <t>王召</t>
-  </si>
-  <si>
-    <t>胡佳佳</t>
-  </si>
-  <si>
-    <t>杨修</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,16 +65,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,9 +89,86 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,36 +189,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -151,52 +197,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,13 +217,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,13 +295,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,31 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,96 +398,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,21 +408,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,29 +437,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +490,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -516,145 +516,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>43983</v>
+        <v>44010</v>
       </c>
       <c r="C1">
-        <v>18137273250</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1047,10 +1047,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>43984</v>
+        <v>44011</v>
       </c>
       <c r="C2">
-        <v>17621301036</v>
+        <v>15601879579</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1058,10 +1058,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>43985</v>
+        <v>44012</v>
       </c>
       <c r="C3">
-        <v>18321018650</v>
+        <v>18916924202</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1069,10 +1069,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>43986</v>
+        <v>44013</v>
       </c>
       <c r="C4">
-        <v>13761302949</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1080,10 +1080,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>43987</v>
+        <v>44014</v>
       </c>
       <c r="C5">
-        <v>13661400322</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1091,10 +1091,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>43990</v>
+        <v>44015</v>
       </c>
       <c r="C6">
-        <v>15601879579</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1102,10 +1102,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>43991</v>
+        <v>44018</v>
       </c>
       <c r="C7">
-        <v>18916924202</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2">
-        <v>43992</v>
+        <v>44019</v>
       </c>
       <c r="C8">
-        <v>18137273250</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1124,10 +1124,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>43993</v>
+        <v>44020</v>
       </c>
       <c r="C9">
-        <v>17621301036</v>
+        <v>15601879579</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1135,54 +1135,54 @@
         <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>43994</v>
+        <v>44021</v>
       </c>
       <c r="C10">
-        <v>18321018650</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>18916924202</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2">
-        <v>43997</v>
+        <v>44022</v>
       </c>
       <c r="C11">
-        <v>13761302949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>18137273250</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>43998</v>
+        <v>44025</v>
       </c>
       <c r="C12">
-        <v>13661400322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>17621301036</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>43999</v>
+        <v>44026</v>
       </c>
       <c r="C13">
-        <v>15601879579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>18321018650</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2">
-        <v>44000</v>
+        <v>44027</v>
       </c>
       <c r="C14">
-        <v>18916924202</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:3">
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>44001</v>
+        <v>44028</v>
       </c>
       <c r="C15">
-        <v>18137273250</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:3">
@@ -1201,10 +1201,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>44007</v>
+        <v>44029</v>
       </c>
       <c r="C16">
-        <v>17621301036</v>
+        <v>15601879579</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:3">
@@ -1212,10 +1212,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="2">
-        <v>44005</v>
+        <v>44032</v>
       </c>
       <c r="C17">
-        <v>18321018650</v>
+        <v>18916924202</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:3">
@@ -1223,43 +1223,43 @@
         <v>3</v>
       </c>
       <c r="B18" s="2">
-        <v>44006</v>
+        <v>44033</v>
       </c>
       <c r="C18">
+        <v>18137273250</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44034</v>
+      </c>
+      <c r="C19">
+        <v>17621301036</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C20">
+        <v>18321018650</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44036</v>
+      </c>
+      <c r="C21">
         <v>13761302949</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3">
-        <v>44009</v>
-      </c>
-      <c r="C19" s="1">
-        <v>13761302949</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3">
-        <v>44008</v>
-      </c>
-      <c r="C20" s="1">
-        <v>15601879579</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3">
-        <v>43988</v>
-      </c>
-      <c r="C21" s="1">
-        <v>17621301036</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
@@ -1267,10 +1267,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="3">
-        <v>43995</v>
+        <v>44016</v>
       </c>
       <c r="C22" s="1">
-        <v>18321018650</v>
+        <v>18916924202</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
@@ -1278,32 +1278,32 @@
         <v>4</v>
       </c>
       <c r="B23" s="3">
-        <v>44002</v>
+        <v>44023</v>
       </c>
       <c r="C23" s="1">
-        <v>13661400322</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B24" s="3">
-        <v>44004</v>
+        <v>44030</v>
       </c>
       <c r="C24" s="1">
-        <v>18137273250</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B25" s="3">
-        <v>43981</v>
+        <v>44037</v>
       </c>
       <c r="C25" s="1">
-        <v>18916924202</v>
+        <v>13661400322</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
   <si>
     <t>王召</t>
   </si>
@@ -44,10 +44,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,6 +65,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -74,6 +89,91 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,116 +187,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,55 +217,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,19 +355,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,103 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,11 +411,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -437,11 +443,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,17 +465,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,15 +508,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -516,145 +516,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,7 +1019,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44010</v>
+        <v>44039</v>
       </c>
       <c r="C1">
         <v>13661400322</v>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>44011</v>
+        <v>44040</v>
       </c>
       <c r="C2">
         <v>15601879579</v>
@@ -1058,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>44012</v>
+        <v>44041</v>
       </c>
       <c r="C3">
         <v>18916924202</v>
@@ -1069,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>44013</v>
+        <v>44042</v>
       </c>
       <c r="C4">
         <v>18137273250</v>
@@ -1080,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>44014</v>
+        <v>44043</v>
       </c>
       <c r="C5">
         <v>17621301036</v>
@@ -1091,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="C6">
         <v>18321018650</v>
@@ -1102,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>44018</v>
+        <v>44047</v>
       </c>
       <c r="C7">
         <v>13761302949</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="2">
-        <v>44019</v>
+        <v>44048</v>
       </c>
       <c r="C8">
         <v>13661400322</v>
@@ -1121,188 +1121,243 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
-        <v>44020</v>
+        <v>44049</v>
       </c>
       <c r="C9">
-        <v>15601879579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>18916924202</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2">
-        <v>44021</v>
+        <v>44050</v>
       </c>
       <c r="C10">
-        <v>18916924202</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>44022</v>
+        <v>44053</v>
       </c>
       <c r="C11">
-        <v>18137273250</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2">
-        <v>44025</v>
+        <v>44054</v>
       </c>
       <c r="C12">
-        <v>17621301036</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2">
-        <v>44026</v>
+        <v>44055</v>
       </c>
       <c r="C13">
-        <v>18321018650</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B14" s="2">
-        <v>44027</v>
+        <v>44056</v>
       </c>
       <c r="C14">
-        <v>13761302949</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:3">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2">
-        <v>44028</v>
+        <v>44057</v>
       </c>
       <c r="C15">
-        <v>13661400322</v>
+        <v>18916924202</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:3">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2">
-        <v>44029</v>
+        <v>44060</v>
       </c>
       <c r="C16">
-        <v>15601879579</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:3">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>44032</v>
+        <v>44061</v>
       </c>
       <c r="C17">
-        <v>18916924202</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2">
-        <v>44033</v>
+        <v>44062</v>
       </c>
       <c r="C18">
-        <v>18137273250</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:3">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B19" s="2">
-        <v>44034</v>
+        <v>44063</v>
       </c>
       <c r="C19">
-        <v>17621301036</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:3">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2">
-        <v>44035</v>
+        <v>44064</v>
       </c>
       <c r="C20">
-        <v>18321018650</v>
+        <v>18916924202</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:3">
       <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44067</v>
+      </c>
+      <c r="C21">
+        <v>18137273250</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44068</v>
+      </c>
+      <c r="C22">
+        <v>17621301036</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:3">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="2">
-        <v>44036</v>
-      </c>
-      <c r="C21">
+      <c r="B23" s="2">
+        <v>44069</v>
+      </c>
+      <c r="C23">
         <v>13761302949</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:3">
-      <c r="A22" s="1" t="s">
+    <row r="24" customFormat="1" spans="1:3">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44070</v>
+      </c>
+      <c r="C24">
+        <v>13661400322</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="3">
-        <v>44016</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B25" s="2">
+        <v>44071</v>
+      </c>
+      <c r="C25">
         <v>18916924202</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:3">
-      <c r="A23" s="1" t="s">
+    <row r="26" s="1" customFormat="1" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44044</v>
+      </c>
+      <c r="C26" s="1">
+        <v>18137273250</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44051</v>
+      </c>
+      <c r="C27" s="1">
+        <v>13761302949</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44058</v>
+      </c>
+      <c r="C28" s="1">
+        <v>18916924202</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:3">
+      <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="3">
-        <v>44023</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B29" s="3">
+        <v>44065</v>
+      </c>
+      <c r="C29" s="1">
         <v>17621301036</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="3">
-        <v>44030</v>
-      </c>
-      <c r="C24" s="1">
-        <v>18321018650</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:3">
-      <c r="A25" s="1" t="s">
+    <row r="30" s="1" customFormat="1" spans="1:3">
+      <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="3">
-        <v>44037</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B30" s="3">
+        <v>44072</v>
+      </c>
+      <c r="C30" s="1">
         <v>13661400322</v>
       </c>
     </row>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,16 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
-  <si>
-    <t>王召</t>
-  </si>
-  <si>
-    <t>胡佳佳</t>
-  </si>
-  <si>
-    <t>杨修</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="6">
   <si>
     <t>朱梦迪</t>
   </si>
@@ -38,16 +29,22 @@
   <si>
     <t>王培</t>
   </si>
+  <si>
+    <t>王召</t>
+  </si>
+  <si>
+    <t>杨修</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -59,6 +56,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -73,6 +85,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -81,14 +101,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,93 +191,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,25 +214,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +340,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,145 +364,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,6 +405,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -422,6 +434,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,26 +486,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,30 +505,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -516,145 +513,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,10 +1016,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1036,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44039</v>
+        <v>44074</v>
       </c>
       <c r="C1">
-        <v>13661400322</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1047,10 +1044,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>44040</v>
+        <v>44075</v>
       </c>
       <c r="C2">
-        <v>15601879579</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1058,10 +1055,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>44041</v>
+        <v>44076</v>
       </c>
       <c r="C3">
-        <v>18916924202</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1069,10 +1066,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>44042</v>
+        <v>44077</v>
       </c>
       <c r="C4">
-        <v>18137273250</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1080,10 +1077,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>44043</v>
+        <v>44078</v>
       </c>
       <c r="C5">
-        <v>17621301036</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1091,43 +1088,43 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>44046</v>
+        <v>44081</v>
       </c>
       <c r="C6">
-        <v>18321018650</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>18916924202</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>44047</v>
+        <v>44082</v>
       </c>
       <c r="C7">
-        <v>13761302949</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>18137273250</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:3">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>44048</v>
+        <v>44083</v>
       </c>
       <c r="C8">
-        <v>13661400322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>17621301036</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2">
-        <v>44049</v>
+        <v>44084</v>
       </c>
       <c r="C9">
-        <v>18916924202</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:3">
@@ -1135,10 +1132,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="2">
-        <v>44050</v>
+        <v>44085</v>
       </c>
       <c r="C10">
-        <v>18137273250</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:3">
@@ -1146,10 +1143,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>44053</v>
+        <v>44088</v>
       </c>
       <c r="C11">
-        <v>17621301036</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:3">
@@ -1157,32 +1154,32 @@
         <v>5</v>
       </c>
       <c r="B12" s="2">
-        <v>44054</v>
+        <v>44089</v>
       </c>
       <c r="C12">
-        <v>18321018650</v>
+        <v>18916924202</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B13" s="2">
-        <v>44055</v>
+        <v>44090</v>
       </c>
       <c r="C13">
-        <v>13761302949</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:3">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>44056</v>
+        <v>44091</v>
       </c>
       <c r="C14">
-        <v>13661400322</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:3">
@@ -1190,10 +1187,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="2">
-        <v>44057</v>
+        <v>44092</v>
       </c>
       <c r="C15">
-        <v>18916924202</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:3">
@@ -1201,10 +1198,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="2">
-        <v>44060</v>
+        <v>44095</v>
       </c>
       <c r="C16">
-        <v>18137273250</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:3">
@@ -1212,21 +1209,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>44061</v>
+        <v>44096</v>
       </c>
       <c r="C17">
-        <v>17621301036</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>44062</v>
+        <v>44097</v>
       </c>
       <c r="C18">
-        <v>13761302949</v>
+        <v>18916924202</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:3">
@@ -1234,84 +1231,84 @@
         <v>0</v>
       </c>
       <c r="B19" s="2">
-        <v>44063</v>
+        <v>44098</v>
       </c>
       <c r="C19">
-        <v>13661400322</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:3">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="2">
-        <v>44064</v>
+        <v>44099</v>
       </c>
       <c r="C20">
-        <v>18916924202</v>
+        <v>17621301036</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="2">
-        <v>44067</v>
+        <v>44101</v>
       </c>
       <c r="C21">
-        <v>18137273250</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="2">
-        <v>44068</v>
+        <v>44102</v>
       </c>
       <c r="C22">
-        <v>17621301036</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>44069</v>
+        <v>44103</v>
       </c>
       <c r="C23">
-        <v>13761302949</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:3">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2">
-        <v>44070</v>
+        <v>44104</v>
       </c>
       <c r="C24">
-        <v>13661400322</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:3">
-      <c r="A25" t="s">
+        <v>18916924202</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:3">
+      <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="2">
-        <v>44071</v>
-      </c>
-      <c r="C25">
-        <v>18916924202</v>
+      <c r="B25" s="3">
+        <v>44079</v>
+      </c>
+      <c r="C25" s="1">
+        <v>18321018650</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B26" s="3">
-        <v>44044</v>
+        <v>44086</v>
       </c>
       <c r="C26" s="1">
         <v>18137273250</v>
@@ -1319,10 +1316,10 @@
     </row>
     <row r="27" s="1" customFormat="1" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" s="3">
-        <v>44051</v>
+        <v>44093</v>
       </c>
       <c r="C27" s="1">
         <v>13761302949</v>
@@ -1330,35 +1327,13 @@
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" s="3">
-        <v>44058</v>
+        <v>44100</v>
       </c>
       <c r="C28" s="1">
         <v>18916924202</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="3">
-        <v>44065</v>
-      </c>
-      <c r="C29" s="1">
-        <v>17621301036</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="3">
-        <v>44072</v>
-      </c>
-      <c r="C30" s="1">
-        <v>13661400322</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -41,10 +41,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -56,6 +56,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -63,23 +86,60 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,22 +153,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,22 +163,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,56 +192,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,24 +214,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -244,19 +358,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,133 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,60 +405,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,8 +426,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +437,51 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,6 +496,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -513,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44074</v>
+        <v>44113</v>
       </c>
       <c r="C1">
         <v>18137273250</v>
@@ -1044,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>44075</v>
+        <v>44114</v>
       </c>
       <c r="C2">
         <v>17621301036</v>
@@ -1055,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>44076</v>
+        <v>44116</v>
       </c>
       <c r="C3">
         <v>18321018650</v>
@@ -1066,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>44077</v>
+        <v>44117</v>
       </c>
       <c r="C4">
         <v>13761302949</v>
@@ -1077,7 +1077,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>44078</v>
+        <v>44118</v>
       </c>
       <c r="C5">
         <v>13661400322</v>
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>44081</v>
+        <v>44119</v>
       </c>
       <c r="C6">
         <v>18916924202</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>44082</v>
+        <v>44120</v>
       </c>
       <c r="C7">
         <v>18137273250</v>
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>44083</v>
+        <v>44123</v>
       </c>
       <c r="C8">
         <v>17621301036</v>
@@ -1121,7 +1121,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="2">
-        <v>44084</v>
+        <v>44124</v>
       </c>
       <c r="C9">
         <v>18321018650</v>
@@ -1132,7 +1132,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2">
-        <v>44085</v>
+        <v>44125</v>
       </c>
       <c r="C10">
         <v>13761302949</v>
@@ -1143,7 +1143,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>44088</v>
+        <v>44126</v>
       </c>
       <c r="C11">
         <v>13661400322</v>
@@ -1154,7 +1154,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2">
-        <v>44089</v>
+        <v>44127</v>
       </c>
       <c r="C12">
         <v>18916924202</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="2">
-        <v>44090</v>
+        <v>44130</v>
       </c>
       <c r="C13">
         <v>18137273250</v>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>44091</v>
+        <v>44131</v>
       </c>
       <c r="C14">
         <v>17621301036</v>
@@ -1187,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="2">
-        <v>44092</v>
+        <v>44132</v>
       </c>
       <c r="C15">
         <v>18321018650</v>
@@ -1198,7 +1198,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="2">
-        <v>44095</v>
+        <v>44133</v>
       </c>
       <c r="C16">
         <v>13761302949</v>
@@ -1209,7 +1209,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>44096</v>
+        <v>44134</v>
       </c>
       <c r="C17">
         <v>13661400322</v>
@@ -1220,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>44097</v>
+        <v>44137</v>
       </c>
       <c r="C18">
         <v>18916924202</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="2">
-        <v>44098</v>
+        <v>44138</v>
       </c>
       <c r="C19">
         <v>18137273250</v>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="2">
-        <v>44099</v>
+        <v>44139</v>
       </c>
       <c r="C20">
         <v>17621301036</v>
@@ -1253,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2">
-        <v>44101</v>
+        <v>44140</v>
       </c>
       <c r="C21">
         <v>18321018650</v>
@@ -1264,7 +1264,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="2">
-        <v>44102</v>
+        <v>44141</v>
       </c>
       <c r="C22">
         <v>13761302949</v>
@@ -1275,7 +1275,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>44103</v>
+        <v>44144</v>
       </c>
       <c r="C23">
         <v>13661400322</v>
@@ -1286,7 +1286,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="2">
-        <v>44104</v>
+        <v>44145</v>
       </c>
       <c r="C24">
         <v>18916924202</v>
@@ -1294,46 +1294,46 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B25" s="3">
-        <v>44079</v>
+        <v>44121</v>
       </c>
       <c r="C25" s="1">
-        <v>18321018650</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B26" s="3">
-        <v>44086</v>
+        <v>44128</v>
       </c>
       <c r="C26" s="1">
-        <v>18137273250</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" s="3">
-        <v>44093</v>
+        <v>44135</v>
       </c>
       <c r="C27" s="1">
-        <v>13761302949</v>
+        <v>18916924202</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>44100</v>
+        <v>44142</v>
       </c>
       <c r="C28" s="1">
-        <v>18916924202</v>
+        <v>17621301036</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="4">
   <si>
     <t>朱梦迪</t>
-  </si>
-  <si>
-    <t>谢小军</t>
   </si>
   <si>
     <t>杨威</t>
@@ -32,19 +29,16 @@
   <si>
     <t>王召</t>
   </si>
-  <si>
-    <t>杨修</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -56,7 +50,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,128 +186,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -214,187 +208,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,6 +399,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -426,8 +485,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,71 +499,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -513,10 +507,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +519,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,7 +1013,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1028,136 +1022,136 @@
     <col min="3" max="3" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" customFormat="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44113</v>
+        <v>44130</v>
       </c>
       <c r="C1">
         <v>18137273250</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" customFormat="1" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>44114</v>
+        <v>44131</v>
       </c>
       <c r="C2">
-        <v>17621301036</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>18321018650</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>44116</v>
+        <v>44132</v>
       </c>
       <c r="C3">
-        <v>18321018650</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>13761302949</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>44117</v>
+        <v>44133</v>
       </c>
       <c r="C4">
-        <v>13761302949</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>13661400322</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>44118</v>
+        <v>44134</v>
       </c>
       <c r="C5">
-        <v>13661400322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>18137273250</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>44119</v>
+        <v>44137</v>
       </c>
       <c r="C6">
-        <v>18916924202</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:3">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>44120</v>
+        <v>44138</v>
       </c>
       <c r="C7">
-        <v>18137273250</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>44123</v>
+        <v>44139</v>
       </c>
       <c r="C8">
-        <v>17621301036</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" s="2">
-        <v>44124</v>
+        <v>44140</v>
       </c>
       <c r="C9">
-        <v>18321018650</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>44125</v>
+        <v>44141</v>
       </c>
       <c r="C10">
-        <v>13761302949</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>44126</v>
+        <v>44144</v>
       </c>
       <c r="C11">
-        <v>13661400322</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>44127</v>
+        <v>44145</v>
       </c>
       <c r="C12">
-        <v>18916924202</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:3">
@@ -1165,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="2">
-        <v>44130</v>
+        <v>44146</v>
       </c>
       <c r="C13">
         <v>18137273250</v>
@@ -1176,10 +1170,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>44131</v>
+        <v>44147</v>
       </c>
       <c r="C14">
-        <v>17621301036</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:3">
@@ -1187,10 +1181,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="2">
-        <v>44132</v>
+        <v>44148</v>
       </c>
       <c r="C15">
-        <v>18321018650</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:3">
@@ -1198,143 +1192,119 @@
         <v>3</v>
       </c>
       <c r="B16" s="2">
-        <v>44133</v>
+        <v>44151</v>
       </c>
       <c r="C16">
-        <v>13761302949</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2">
-        <v>44134</v>
+        <v>44152</v>
       </c>
       <c r="C17">
-        <v>13661400322</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>44137</v>
+        <v>44153</v>
       </c>
       <c r="C18">
-        <v>18916924202</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:3">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2">
-        <v>44138</v>
+        <v>44154</v>
       </c>
       <c r="C19">
-        <v>18137273250</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:3">
       <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44155</v>
+      </c>
+      <c r="C20">
+        <v>13661400322</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44149</v>
+      </c>
+      <c r="C21" s="1">
+        <v>18137273250</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44128</v>
+      </c>
+      <c r="C22" s="1">
+        <v>13761302949</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:3">
+      <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2">
-        <v>44139</v>
-      </c>
-      <c r="C20">
-        <v>17621301036</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:3">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2">
-        <v>44140</v>
-      </c>
-      <c r="C21">
+      <c r="B23" s="3">
+        <v>44135</v>
+      </c>
+      <c r="C23" s="1">
         <v>18321018650</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:3">
-      <c r="A22" t="s">
+    <row r="24" s="1" customFormat="1" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="2">
-        <v>44141</v>
-      </c>
-      <c r="C22">
-        <v>13761302949</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:3">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="2">
-        <v>44144</v>
-      </c>
-      <c r="C23">
+      <c r="B24" s="3">
+        <v>44142</v>
+      </c>
+      <c r="C24" s="1">
         <v>13661400322</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:3">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2">
-        <v>44145</v>
-      </c>
-      <c r="C24">
-        <v>18916924202</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B25" s="3">
-        <v>44121</v>
+        <v>44156</v>
       </c>
       <c r="C25" s="1">
-        <v>18137273250</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="3">
-        <v>44128</v>
-      </c>
-      <c r="C26" s="1">
         <v>13761302949</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="3">
-        <v>44135</v>
-      </c>
-      <c r="C27" s="1">
-        <v>18916924202</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3">
-        <v>44142</v>
-      </c>
-      <c r="C28" s="1">
-        <v>17621301036</v>
-      </c>
+    <row r="26" customFormat="1" spans="2:2">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" customFormat="1" spans="2:2">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" customFormat="1" spans="2:2">
+      <c r="B28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>朱梦迪</t>
   </si>
@@ -50,19 +50,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -71,16 +71,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,31 +111,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,46 +163,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,8 +177,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,102 +208,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -311,84 +389,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +427,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -437,17 +452,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,21 +467,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +488,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -507,10 +507,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,133 +519,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,10 +1010,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44130</v>
+        <v>44158</v>
       </c>
       <c r="C1">
         <v>18137273250</v>
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>44131</v>
+        <v>44159</v>
       </c>
       <c r="C2">
         <v>18321018650</v>
@@ -1049,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>44132</v>
+        <v>44160</v>
       </c>
       <c r="C3">
         <v>13761302949</v>
@@ -1060,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>44133</v>
+        <v>44161</v>
       </c>
       <c r="C4">
         <v>13661400322</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>44134</v>
+        <v>44162</v>
       </c>
       <c r="C5">
         <v>18137273250</v>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>44137</v>
+        <v>44165</v>
       </c>
       <c r="C6">
         <v>18321018650</v>
@@ -1093,7 +1093,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>44138</v>
+        <v>44166</v>
       </c>
       <c r="C7">
         <v>13761302949</v>
@@ -1104,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>44139</v>
+        <v>44167</v>
       </c>
       <c r="C8">
         <v>13661400322</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="2">
-        <v>44140</v>
+        <v>44168</v>
       </c>
       <c r="C9">
         <v>18137273250</v>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>44141</v>
+        <v>44169</v>
       </c>
       <c r="C10">
         <v>18321018650</v>
@@ -1137,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>44144</v>
+        <v>44172</v>
       </c>
       <c r="C11">
         <v>13761302949</v>
@@ -1148,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>44145</v>
+        <v>44173</v>
       </c>
       <c r="C12">
         <v>13661400322</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="2">
-        <v>44146</v>
+        <v>44174</v>
       </c>
       <c r="C13">
         <v>18137273250</v>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>44147</v>
+        <v>44175</v>
       </c>
       <c r="C14">
         <v>18321018650</v>
@@ -1181,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="2">
-        <v>44148</v>
+        <v>44176</v>
       </c>
       <c r="C15">
         <v>13761302949</v>
@@ -1192,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="2">
-        <v>44151</v>
+        <v>44179</v>
       </c>
       <c r="C16">
         <v>13661400322</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="2">
-        <v>44152</v>
+        <v>44180</v>
       </c>
       <c r="C17">
         <v>18137273250</v>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>44153</v>
+        <v>44181</v>
       </c>
       <c r="C18">
         <v>18321018650</v>
@@ -1225,7 +1225,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2">
-        <v>44154</v>
+        <v>44182</v>
       </c>
       <c r="C19">
         <v>13761302949</v>
@@ -1236,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="2">
-        <v>44155</v>
+        <v>44183</v>
       </c>
       <c r="C20">
         <v>13661400322</v>
@@ -1244,67 +1244,56 @@
     </row>
     <row r="21" s="1" customFormat="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>44149</v>
+        <v>44163</v>
       </c>
       <c r="C21" s="1">
-        <v>18137273250</v>
+        <v>18321018650</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" s="3">
-        <v>44128</v>
+        <v>44170</v>
       </c>
       <c r="C22" s="1">
-        <v>13761302949</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" s="3">
-        <v>44135</v>
+        <v>44177</v>
       </c>
       <c r="C23" s="1">
-        <v>18321018650</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="3">
-        <v>44142</v>
+        <v>44184</v>
       </c>
       <c r="C24" s="1">
-        <v>13661400322</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3">
-        <v>44156</v>
-      </c>
-      <c r="C25" s="1">
         <v>13761302949</v>
       </c>
+    </row>
+    <row r="25" customFormat="1" spans="2:2">
+      <c r="B25" s="2"/>
     </row>
     <row r="26" customFormat="1" spans="2:2">
       <c r="B26" s="2"/>
     </row>
     <row r="27" customFormat="1" spans="2:2">
       <c r="B27" s="2"/>
-    </row>
-    <row r="28" customFormat="1" spans="2:2">
-      <c r="B28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="4">
-  <si>
-    <t>朱梦迪</t>
-  </si>
-  <si>
-    <t>杨威</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="3">
   <si>
     <t>王培</t>
   </si>
   <si>
     <t>王召</t>
+  </si>
+  <si>
+    <t>朱梦迪</t>
   </si>
 </sst>
 </file>
@@ -50,14 +47,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -65,22 +77,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,6 +130,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -103,6 +145,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -110,10 +160,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,32 +176,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,36 +189,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -208,79 +205,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,102 +386,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,6 +396,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -427,16 +439,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,17 +464,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,24 +496,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -507,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,10 +1007,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1027,10 +1024,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44130</v>
+        <v>44172</v>
       </c>
       <c r="C1">
-        <v>18137273250</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:3">
@@ -1038,10 +1035,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>44131</v>
+        <v>44173</v>
       </c>
       <c r="C2">
-        <v>18321018650</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
@@ -1049,51 +1046,51 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>44132</v>
+        <v>44174</v>
       </c>
       <c r="C3">
-        <v>13761302949</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>44133</v>
+        <v>44175</v>
       </c>
       <c r="C4">
-        <v>13661400322</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>44134</v>
+        <v>44176</v>
       </c>
       <c r="C5">
-        <v>18137273250</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>44137</v>
+        <v>44179</v>
       </c>
       <c r="C6">
-        <v>18321018650</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>44138</v>
+        <v>44180</v>
       </c>
       <c r="C7">
         <v>13761302949</v>
@@ -1101,10 +1098,10 @@
     </row>
     <row r="8" customFormat="1" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>44139</v>
+        <v>44181</v>
       </c>
       <c r="C8">
         <v>13661400322</v>
@@ -1112,10 +1109,10 @@
     </row>
     <row r="9" customFormat="1" spans="1:3">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
-        <v>44140</v>
+        <v>44182</v>
       </c>
       <c r="C9">
         <v>18137273250</v>
@@ -1123,35 +1120,35 @@
     </row>
     <row r="10" customFormat="1" spans="1:3">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>44141</v>
+        <v>44183</v>
       </c>
       <c r="C10">
-        <v>18321018650</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>44144</v>
+        <v>44186</v>
       </c>
       <c r="C11">
-        <v>13761302949</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>44145</v>
+        <v>44187</v>
       </c>
       <c r="C12">
-        <v>13661400322</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:3">
@@ -1159,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="2">
-        <v>44146</v>
+        <v>44188</v>
       </c>
       <c r="C13">
-        <v>18137273250</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:3">
@@ -1170,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>44147</v>
+        <v>44189</v>
       </c>
       <c r="C14">
-        <v>18321018650</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:3">
@@ -1181,73 +1178,73 @@
         <v>2</v>
       </c>
       <c r="B15" s="2">
-        <v>44148</v>
+        <v>44190</v>
       </c>
       <c r="C15">
-        <v>13761302949</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>44151</v>
+        <v>44193</v>
       </c>
       <c r="C16">
-        <v>13661400322</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:3">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>44152</v>
+        <v>44194</v>
       </c>
       <c r="C17">
-        <v>18137273250</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:3">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2">
-        <v>44153</v>
+        <v>44195</v>
       </c>
       <c r="C18">
-        <v>18321018650</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:3">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B19" s="2">
-        <v>44154</v>
+        <v>44196</v>
       </c>
       <c r="C19">
         <v>13761302949</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:3">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2">
-        <v>44155</v>
-      </c>
-      <c r="C20">
+    <row r="20" s="1" customFormat="1" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44170</v>
+      </c>
+      <c r="C20" s="1">
         <v>13661400322</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B21" s="3">
-        <v>44149</v>
+        <v>44177</v>
       </c>
       <c r="C21" s="1">
         <v>18137273250</v>
@@ -1255,10 +1252,10 @@
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B22" s="3">
-        <v>44128</v>
+        <v>44184</v>
       </c>
       <c r="C22" s="1">
         <v>13761302949</v>
@@ -1269,42 +1266,11 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>44135</v>
+        <v>44191</v>
       </c>
       <c r="C23" s="1">
-        <v>18321018650</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3">
-        <v>44142</v>
-      </c>
-      <c r="C24" s="1">
         <v>13661400322</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3">
-        <v>44156</v>
-      </c>
-      <c r="C25" s="1">
-        <v>13761302949</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="2:2">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" customFormat="1" spans="2:2">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" customFormat="1" spans="2:2">
-      <c r="B28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -34,8 +34,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,26 +47,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -75,8 +84,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -85,14 +109,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,15 +124,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,6 +145,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -137,7 +176,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,48 +184,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -205,187 +205,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,17 +414,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,8 +426,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,17 +449,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -473,11 +456,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,7 +516,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,124 +525,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
   <si>
     <t>王培</t>
   </si>
@@ -32,10 +32,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,7 +47,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,46 +153,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,59 +176,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,115 +205,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,67 +373,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,21 +396,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -432,26 +417,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,6 +471,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -481,21 +496,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,16 +516,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,115 +534,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,10 +1007,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1270,6 +1270,17 @@
       </c>
       <c r="C23" s="1">
         <v>13661400322</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C24" s="1">
+        <v>18137273250</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="3">
   <si>
     <t>王培</t>
   </si>
@@ -32,8 +32,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -47,21 +47,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,7 +77,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,7 +138,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,6 +169,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -145,46 +183,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,187 +205,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,33 +396,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -437,6 +410,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,17 +438,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,11 +475,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,10 +1007,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1270,17 +1270,6 @@
       </c>
       <c r="C23" s="1">
         <v>13661400322</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C24" s="1">
-        <v>18137273250</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ERP值班.xlsx
+++ b/src/main/resources/ERP值班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="3">
+  <si>
+    <t>王召</t>
+  </si>
   <si>
     <t>朱梦迪</t>
   </si>
   <si>
-    <t>杨威</t>
-  </si>
-  <si>
     <t>王培</t>
-  </si>
-  <si>
-    <t>王召</t>
   </si>
 </sst>
 </file>
@@ -35,9 +32,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -49,15 +46,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -65,7 +64,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,15 +109,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,6 +162,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,65 +182,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -176,24 +189,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,187 +205,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,17 +405,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,17 +462,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,35 +502,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -507,10 +510,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,137 +522,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,7 +662,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1010,13 +1016,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.5"/>
     <col min="3" max="3" width="12.625"/>
@@ -1027,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44158</v>
+        <v>44200</v>
       </c>
       <c r="C1">
-        <v>18137273250</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:3">
@@ -1038,10 +1044,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>44159</v>
+        <v>44201</v>
       </c>
       <c r="C2">
-        <v>18321018650</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
@@ -1049,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>44160</v>
+        <v>44202</v>
       </c>
       <c r="C3">
         <v>13761302949</v>
@@ -1057,10 +1063,10 @@
     </row>
     <row r="4" customFormat="1" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>44161</v>
+        <v>44203</v>
       </c>
       <c r="C4">
         <v>13661400322</v>
@@ -1068,10 +1074,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>44162</v>
+        <v>44204</v>
       </c>
       <c r="C5">
         <v>18137273250</v>
@@ -1079,79 +1085,79 @@
     </row>
     <row r="6" customFormat="1" spans="1:3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>44165</v>
+        <v>44207</v>
       </c>
       <c r="C6">
-        <v>18321018650</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>44166</v>
+        <v>44208</v>
       </c>
       <c r="C7">
-        <v>13761302949</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>44167</v>
+        <v>44209</v>
       </c>
       <c r="C8">
-        <v>13661400322</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:3">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
-        <v>44168</v>
+        <v>44210</v>
       </c>
       <c r="C9">
-        <v>18137273250</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:3">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>44169</v>
+        <v>44211</v>
       </c>
       <c r="C10">
-        <v>18321018650</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="C11">
-        <v>13761302949</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>44173</v>
+        <v>44215</v>
       </c>
       <c r="C12">
-        <v>13661400322</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:3">
@@ -1159,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="2">
-        <v>44174</v>
+        <v>44216</v>
       </c>
       <c r="C13">
-        <v>18137273250</v>
+        <v>13661400322</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:3">
@@ -1170,10 +1176,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>44175</v>
+        <v>44217</v>
       </c>
       <c r="C14">
-        <v>18321018650</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:3">
@@ -1181,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="2">
-        <v>44176</v>
+        <v>44218</v>
       </c>
       <c r="C15">
         <v>13761302949</v>
@@ -1189,10 +1195,10 @@
     </row>
     <row r="16" customFormat="1" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>44179</v>
+        <v>44221</v>
       </c>
       <c r="C16">
         <v>13661400322</v>
@@ -1200,10 +1206,10 @@
     </row>
     <row r="17" customFormat="1" spans="1:3">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>44180</v>
+        <v>44222</v>
       </c>
       <c r="C17">
         <v>18137273250</v>
@@ -1211,89 +1217,284 @@
     </row>
     <row r="18" customFormat="1" spans="1:3">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2">
-        <v>44181</v>
+        <v>44223</v>
       </c>
       <c r="C18">
-        <v>18321018650</v>
+        <v>13761302949</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:3">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2">
-        <v>44182</v>
+        <v>44224</v>
       </c>
       <c r="C19">
-        <v>13761302949</v>
+        <v>18137273250</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B20" s="2">
-        <v>44183</v>
+        <v>44225</v>
       </c>
       <c r="C20">
         <v>13661400322</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:3">
-      <c r="A21" s="1" t="s">
+    <row r="21" s="1" customFormat="1" spans="1:32">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44228</v>
+      </c>
+      <c r="C21">
+        <v>13761302949</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:32">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44229</v>
+      </c>
+      <c r="C22">
+        <v>13661400322</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:32">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="3">
-        <v>44163</v>
-      </c>
-      <c r="C21" s="1">
-        <v>18321018650</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3">
-        <v>44170</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B23" s="2">
+        <v>44230</v>
+      </c>
+      <c r="C23">
+        <v>18137273250</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:32">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44231</v>
+      </c>
+      <c r="C24">
+        <v>13761302949</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:3">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44232</v>
+      </c>
+      <c r="C25">
         <v>13661400322</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:3">
-      <c r="A23" s="1" t="s">
+    <row r="26" customFormat="1" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C26" s="1">
+        <v>18137273250</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4">
+        <v>44198</v>
+      </c>
+      <c r="C27" s="1">
+        <v>13761302949</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="3">
-        <v>44177</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B28" s="4">
+        <v>44205</v>
+      </c>
+      <c r="C28" s="1">
+        <v>13661400322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4">
+        <v>44212</v>
+      </c>
+      <c r="C29" s="1">
         <v>18137273250</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:3">
-      <c r="A24" s="1" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="3">
-        <v>44184</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B30" s="4">
+        <v>44219</v>
+      </c>
+      <c r="C30" s="1">
         <v>13761302949</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="2:2">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" customFormat="1" spans="2:2">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" customFormat="1" spans="2:2">
-      <c r="B27" s="2"/>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4">
+        <v>44226</v>
+      </c>
+      <c r="C31" s="1">
+        <v>13661400322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4">
+        <v>44233</v>
+      </c>
+      <c r="C32" s="1">
+        <v>18137273250</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
